--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.012621.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.012621.xlsx_with_dialog_acts.xlsx
@@ -509,12 +509,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -623,12 +623,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -775,12 +775,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1459,12 +1459,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1649,12 +1649,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2143,12 +2143,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2257,12 +2257,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2409,12 +2409,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2789,12 +2789,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3553,12 +3553,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3667,12 +3667,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4237,12 +4237,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4389,12 +4389,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4769,12 +4769,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5111,12 +5111,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5491,12 +5491,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5643,12 +5643,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5681,12 +5681,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5833,12 +5833,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5909,12 +5909,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5985,12 +5985,12 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6061,12 +6061,12 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6289,12 +6289,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6783,12 +6783,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7433,12 +7433,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7775,12 +7775,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8003,12 +8003,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8421,12 +8421,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8729,12 +8729,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -9565,12 +9565,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9603,12 +9603,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9983,12 +9983,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10021,12 +10021,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10857,12 +10857,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11165,12 +11165,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12229,12 +12229,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13027,12 +13027,12 @@
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13673,12 +13673,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13787,12 +13787,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13863,12 +13863,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14015,12 +14015,12 @@
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14205,12 +14205,12 @@
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14319,12 +14319,12 @@
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14357,12 +14357,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14433,12 +14433,12 @@
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14589,12 +14589,12 @@
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14817,12 +14817,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14931,12 +14931,12 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15273,12 +15273,12 @@
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15577,12 +15577,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15805,12 +15805,12 @@
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16451,12 +16451,12 @@
       <c r="H421" t="inlineStr"/>
       <c r="I421" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16755,12 +16755,12 @@
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16983,12 +16983,12 @@
       <c r="H435" t="inlineStr"/>
       <c r="I435" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17401,12 +17401,12 @@
       <c r="H446" t="inlineStr"/>
       <c r="I446" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17667,12 +17667,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17743,12 +17743,12 @@
       <c r="H455" t="inlineStr"/>
       <c r="I455" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17819,12 +17819,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18503,12 +18503,12 @@
       <c r="H475" t="inlineStr"/>
       <c r="I475" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
